--- a/regions/5/mretsveloba/mretsveloba.xlsx
+++ b/regions/5/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -124,7 +124,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
     <col min="1" max="1" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -576,8 +576,14 @@
       <c r="P2" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -626,8 +632,14 @@
       <c r="P3" s="9">
         <v>614.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9">
+        <v>756.6</v>
+      </c>
+      <c r="R3" s="9">
+        <v>595.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -676,8 +688,14 @@
       <c r="P4" s="9">
         <v>548.20000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="9">
+        <v>706</v>
+      </c>
+      <c r="R4" s="9">
+        <v>561.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -726,8 +744,14 @@
       <c r="P5" s="11">
         <v>2827</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="11">
+        <v>2918</v>
+      </c>
+      <c r="R5" s="11">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -776,8 +800,14 @@
       <c r="P6" s="11">
         <v>2567</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>2539</v>
+      </c>
+      <c r="R6" s="11">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -826,8 +856,14 @@
       <c r="P7" s="9">
         <v>1459.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9">
+        <v>1584.6</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1781.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -876,8 +912,14 @@
       <c r="P8" s="9">
         <v>267.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="9">
+        <v>362.2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -926,8 +968,14 @@
       <c r="P9" s="9">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="9">
+        <v>52.2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1024,14 @@
       <c r="P10" s="9">
         <v>280.39999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9">
+        <v>343.9</v>
+      </c>
+      <c r="R10" s="9">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1080,14 @@
       <c r="P11" s="9">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="9">
+        <v>72</v>
+      </c>
+      <c r="R11" s="9">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1136,14 @@
       <c r="P12" s="9">
         <v>343.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="9">
+        <v>458.5</v>
+      </c>
+      <c r="R12" s="9">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1093,7 +1159,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1116,10 +1182,6 @@
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>

--- a/regions/5/mretsveloba/mretsveloba.xlsx
+++ b/regions/5/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
     <col min="1" max="1" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -582,8 +582,11 @@
       <c r="R2" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -638,8 +641,11 @@
       <c r="R3" s="9">
         <v>595.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="9">
+        <v>658.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -694,8 +700,11 @@
       <c r="R4" s="9">
         <v>561.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="9">
+        <v>635.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -750,8 +759,11 @@
       <c r="R5" s="11">
         <v>3073</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="11">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -806,8 +818,11 @@
       <c r="R6" s="11">
         <v>2563</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="11">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -862,8 +877,11 @@
       <c r="R7" s="9">
         <v>1781.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="9">
+        <v>2210.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -918,8 +936,11 @@
       <c r="R8" s="9">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="9">
+        <v>368.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -974,8 +995,11 @@
       <c r="R9" s="9">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="9">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +1054,11 @@
       <c r="R10" s="9">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="9">
+        <v>267.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="R11" s="9">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="9">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1142,8 +1172,11 @@
       <c r="R12" s="9">
         <v>367.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="9">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1159,7 +1192,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
